--- a/Lists/List With Only Processors.xlsx
+++ b/Lists/List With Only Processors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -4429,7 +4429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8337,20 +8337,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="35" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:5" ht="22" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="22" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
@@ -8401,7 +8401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
+    <row r="4" spans="1:5" ht="22" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16">
+    <row r="5" spans="1:5" ht="22" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="22" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="22" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>288</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16">
+    <row r="8" spans="1:5" ht="22" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16">
+    <row r="9" spans="1:5" ht="22" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16">
+    <row r="10" spans="1:5" ht="22" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16">
+    <row r="11" spans="1:5" ht="22" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16">
+    <row r="12" spans="1:5" ht="22" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16">
+    <row r="13" spans="1:5" ht="22" customHeight="1">
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="16">
+    <row r="14" spans="1:5" ht="22" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16">
+    <row r="15" spans="1:5" ht="22" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16">
+    <row r="16" spans="1:5" ht="22" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16">
+    <row r="17" spans="1:5" ht="22" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16">
+    <row r="18" spans="1:5" ht="22" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>37</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16">
+    <row r="19" spans="1:5" ht="22" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16">
+    <row r="20" spans="1:5" ht="22" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16">
+    <row r="21" spans="1:5" ht="22" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16">
+    <row r="22" spans="1:5" ht="22" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>36</v>
       </c>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="22" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>48</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16">
+    <row r="24" spans="1:5" ht="22" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="16">
+    <row r="25" spans="1:5" ht="22" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16">
+    <row r="26" spans="1:5" ht="22" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16">
+    <row r="27" spans="1:5" ht="22" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="16">
+    <row r="28" spans="1:5" ht="22" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -8798,7 +8798,7 @@
       </c>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="16">
+    <row r="29" spans="1:5" ht="22" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16">
+    <row r="30" spans="1:5" ht="22" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="16">
+    <row r="31" spans="1:5" ht="22" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>42</v>
       </c>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="16">
+    <row r="32" spans="1:5" ht="22" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>40</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16">
+    <row r="33" spans="1:5" ht="22" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16">
+    <row r="34" spans="1:5" ht="22" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>41</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="22" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>285</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16">
+    <row r="36" spans="1:5" ht="22" customHeight="1">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="16">
+    <row r="37" spans="1:5" ht="22" customHeight="1">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="16">
+    <row r="38" spans="1:5" ht="22" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="16">
+    <row r="39" spans="1:5" ht="22" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>43</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="16">
+    <row r="40" spans="1:5" ht="22" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="16">
+    <row r="41" spans="1:5" ht="22" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>46</v>
       </c>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="22" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>35</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="22" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16">
+    <row r="44" spans="1:5" ht="22" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>3</v>
       </c>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="22" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>51</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16">
+    <row r="46" spans="1:5" ht="22" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>38</v>
       </c>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="22" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16">
+    <row r="48" spans="1:5" ht="22" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>10</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16">
+    <row r="49" spans="1:5" ht="22" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>6</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16">
+    <row r="50" spans="1:5" ht="22" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>20</v>
       </c>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="16">
+    <row r="51" spans="1:5" ht="22" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>7</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16">
+    <row r="52" spans="1:5" ht="22" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>50</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16">
+    <row r="53" spans="1:5" ht="22" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>9</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="16">
+    <row r="54" spans="1:5" ht="22" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>11</v>
       </c>
